--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="MatList">Лист1!$A$8:$L$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Термічна обробка</t>
   </si>
@@ -41,30 +41,6 @@
   </si>
   <si>
     <t>Фарш на формовку, кг.</t>
-  </si>
-  <si>
-    <t>Важливо:</t>
-  </si>
-  <si>
-    <t>1. Усі дані відображаються з двома знаками після коми.</t>
-  </si>
-  <si>
-    <t>2. В звіті ячейки не об'єднювати.</t>
-  </si>
-  <si>
-    <t>3. Можливість відбору в розрізі дати, групи ТМЦ, видів ТМЦ.</t>
-  </si>
-  <si>
-    <t>4. Якщо дані відсутні - проставляємо "0".</t>
-  </si>
-  <si>
-    <t>по  товарах</t>
-  </si>
-  <si>
-    <t>за период</t>
-  </si>
-  <si>
-    <t>по групах товарів</t>
   </si>
   <si>
     <t>Період:</t>
@@ -227,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,15 +216,6 @@
       <b/>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -423,20 +390,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -447,13 +413,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,11 +724,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -780,223 +744,183 @@
     <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+    <row r="1" spans="2:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="2:12" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+    <row r="2" spans="2:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="e">
+    <row r="3" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="2:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11" t="e">
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="2:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="e">
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="e">
         <f>XLRPARAMS_MatID</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="16" t="s">
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>4</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>5</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>6</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>7</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>8</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>9</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>10</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="e">
+      <c r="B8" s="11" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="13" t="e">
+      <c r="C8" s="12" t="e">
         <f>MatList_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="14" t="e">
+      <c r="D8" s="13" t="e">
         <f>MatList_AmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="14" t="e">
+      <c r="E8" s="13" t="e">
         <f>MatList_FormationAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="14" t="e">
+      <c r="F8" s="13" t="e">
         <f>E8-D8</f>
         <v>#NAME?</v>
       </c>
-      <c r="G8" s="14" t="e">
+      <c r="G8" s="13" t="e">
         <f>MatList_HeatTreatmentAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="14" t="e">
+      <c r="H8" s="13" t="e">
         <f>G8-E8</f>
         <v>#NAME?</v>
       </c>
-      <c r="I8" s="14" t="e">
+      <c r="I8" s="13" t="e">
         <f>MatList_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="J8" s="14" t="e">
+      <c r="J8" s="13" t="e">
         <f>I8-G8</f>
         <v>#NAME?</v>
       </c>
-      <c r="K8" s="15" t="e">
+      <c r="K8" s="14" t="e">
         <f>I8/D8</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="14" t="e">
+      <c r="L8" s="13" t="e">
         <f>MatList_Price</f>
         <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -12,15 +12,17 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$L$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$M$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$M$10</definedName>
+    <definedName name="WhList">Лист1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Термічна обробка</t>
   </si>
@@ -198,12 +200,21 @@
       <t>кг.</t>
     </r>
   </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Разом</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +317,23 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -326,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -377,11 +405,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -405,7 +511,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -419,8 +524,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,39 +865,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="2:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -765,8 +911,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -774,15 +921,15 @@
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
@@ -790,15 +937,15 @@
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -807,130 +954,189 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:13" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="28"/>
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E7" s="15">
         <v>3</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F7" s="15">
         <v>4</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="15">
         <v>5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="15">
         <v>6</v>
       </c>
-      <c r="H7" s="16">
+      <c r="I7" s="15">
         <v>7</v>
       </c>
-      <c r="I7" s="16">
+      <c r="J7" s="15">
         <v>8</v>
       </c>
-      <c r="J7" s="16">
+      <c r="K7" s="15">
         <v>9</v>
       </c>
-      <c r="K7" s="16">
+      <c r="L7" s="15">
         <v>10</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M7" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="e">
+    <row r="8" spans="2:13" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="12" t="e">
-        <f>MatList_OnDate</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="13" t="e">
-        <f>MatList_AmountIn</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="13" t="e">
-        <f>MatList_FormationAmount</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="13" t="e">
-        <f>E8-D8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="13" t="e">
-        <f>MatList_HeatTreatmentAmount</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="13" t="e">
-        <f>G8-E8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="13" t="e">
-        <f>MatList_AmountOut</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="13" t="e">
-        <f>I8-G8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="14" t="e">
-        <f>I8/D8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="13" t="e">
-        <f>MatList_Price</f>
-        <v>#NAME?</v>
+      <c r="C8" s="23"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11" t="e">
+        <f>WBList_OnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="12" t="e">
+        <f>WBList_AmountIn</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="12" t="e">
+        <f>WBList_FormationAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="12" t="e">
+        <f>F9-E9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="12" t="e">
+        <f>WBList_HeatTreatmentAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="12" t="e">
+        <f>H9-F9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="12" t="e">
+        <f>WBList_AmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="12" t="e">
+        <f>J9-H9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" s="13" t="e">
+        <f>J9/E9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M9" s="12" t="e">
+        <f>WBList_Price</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="e">
+        <f>B8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="1048575" man="1"/>
+    <brk id="13" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,17 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$M$11</definedName>
-    <definedName name="WBList">Лист1!$A$9:$M$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$N$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$N$10</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$M$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>Термічна обробка</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -154,53 +151,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">∆  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ст.8 - ст.6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>кг.</t>
-    </r>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -208,6 +158,15 @@
   </si>
   <si>
     <t>Разом</t>
+  </si>
+  <si>
+    <t>Термовтрати (кг.)</t>
+  </si>
+  <si>
+    <t>термовтрати (%)</t>
+  </si>
+  <si>
+    <t>Варка</t>
   </si>
 </sst>
 </file>
@@ -865,7 +824,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M10"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -884,14 +843,14 @@
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -902,7 +861,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="2:13" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -913,9 +872,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
@@ -928,10 +887,11 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="e">
         <f>XLRPARAMS_GRP</f>
@@ -944,53 +904,57 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="2:13" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="e">
         <f>XLRPARAMS_MatID</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="2:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <v>1</v>
       </c>
@@ -1025,8 +989,11 @@
       <c r="M7" s="15">
         <v>11</v>
       </c>
+      <c r="N7" s="15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
@@ -1040,10 +1007,11 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="11" t="e">
@@ -1063,7 +1031,7 @@
         <v>#NAME?</v>
       </c>
       <c r="H9" s="12" t="e">
-        <f>WBList_HeatTreatmentAmount</f>
+        <f>WBList_CookingAmount</f>
         <v>#NAME?</v>
       </c>
       <c r="I9" s="12" t="e">
@@ -1079,49 +1047,56 @@
         <v>#NAME?</v>
       </c>
       <c r="L9" s="13" t="e">
+        <f>IF(H9 &gt; 0, K9/H9,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M9" s="13" t="e">
         <f>J9/E9</f>
         <v>#NAME?</v>
       </c>
-      <c r="M9" s="12" t="e">
+      <c r="N9" s="12" t="e">
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="e">
         <f>B8</f>
         <v>#NAME?</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1111,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="1048575" man="1"/>
+    <brk id="14" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -12,17 +12,17 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$N$11</definedName>
-    <definedName name="WBList">Лист1!$A$9:$N$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$P$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$P$10</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$P$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Аналіз план/факт</t>
-  </si>
-  <si>
-    <t>Вихід</t>
   </si>
   <si>
     <r>
@@ -168,6 +165,15 @@
   <si>
     <t>Варка</t>
   </si>
+  <si>
+    <t>Вихід факт</t>
+  </si>
+  <si>
+    <t>Вихід план, %</t>
+  </si>
+  <si>
+    <t>Відхилення  (12-11)</t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -492,6 +498,12 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,7 +538,138 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -824,11 +967,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:N10"/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -844,24 +987,25 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="2:14" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -872,7 +1016,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -888,8 +1032,10 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -905,8 +1051,10 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -915,11 +1063,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:16" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
@@ -930,35 +1078,41 @@
         <v>5</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="M6" s="14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27">
+    <row r="7" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="15">
         <v>2</v>
       </c>
@@ -992,13 +1146,17 @@
       <c r="N7" s="15">
         <v>12</v>
       </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="2:14" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="e">
+    <row r="8" spans="2:16" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1009,11 +1167,13 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="2:16" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="11" t="e">
         <f>WBList_OnDate</f>
         <v>#NAME?</v>
@@ -1054,49 +1214,64 @@
         <f>J9/E9</f>
         <v>#NAME?</v>
       </c>
-      <c r="N9" s="12" t="e">
+      <c r="N9" s="19" t="e">
+        <f>WBList_OutPlan/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O9" s="13" t="e">
+        <f>M9-N9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P9" s="12" t="e">
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="e">
+    <row r="10" spans="2:16" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="e">
         <f>B8</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="M10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="N10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="O10" s="18" t="e">
+        <f>M10-N10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1283,26 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>-0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>-0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
+    <brk id="16" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
@@ -12,17 +12,17 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$P$11</definedName>
-    <definedName name="WBList">Лист1!$A$9:$P$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$S$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$S$10</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$P$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$S$18</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -160,25 +160,34 @@
     <t>Термовтрати (кг.)</t>
   </si>
   <si>
-    <t>термовтрати (%)</t>
-  </si>
-  <si>
     <t>Варка</t>
   </si>
   <si>
     <t>Вихід факт</t>
   </si>
   <si>
-    <t>Вихід план, %</t>
-  </si>
-  <si>
-    <t>Відхилення  (12-11)</t>
+    <t>термовтрати відхилення 10-11</t>
+  </si>
+  <si>
+    <t>Відхилення  (13-14)</t>
+  </si>
+  <si>
+    <t>термовтрати план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">термовтрати </t>
+  </si>
+  <si>
+    <t>Відхилення план</t>
+  </si>
+  <si>
+    <t>Вихід план</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,87 +547,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -659,21 +588,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -722,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,7 +679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,11 +889,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:P10"/>
+  <dimension ref="B1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -987,12 +908,14 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +928,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="2:16" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1016,7 +939,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +957,11 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1053,8 +979,11 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +992,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>11</v>
@@ -1093,22 +1022,31 @@
         <v>15</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="14" t="s">
+      <c r="R6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29">
         <v>1</v>
       </c>
@@ -1146,12 +1084,23 @@
       <c r="N7" s="15">
         <v>12</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="15">
+        <v>13</v>
+      </c>
       <c r="P7" s="15">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>15</v>
+      </c>
+      <c r="R7" s="15">
+        <v>16</v>
+      </c>
+      <c r="S7" s="15">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:16" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
@@ -1166,12 +1115,15 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:16" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="11" t="e">
@@ -1211,23 +1163,35 @@
         <v>#NAME?</v>
       </c>
       <c r="M9" s="13" t="e">
+        <f>WBList_ThermoLossOut/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="13" t="e">
+        <f>ABS(L9)-M9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O9" s="13" t="e">
         <f>J9/E9</f>
         <v>#NAME?</v>
       </c>
-      <c r="N9" s="19" t="e">
+      <c r="P9" s="19" t="e">
         <f>WBList_OutPlan/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="O9" s="13" t="e">
-        <f>M9-N9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P9" s="12" t="e">
+      <c r="Q9" s="13" t="e">
+        <f>ABS(O9)-P9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R9" s="13" t="e">
+        <f>WBList_Deviation/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S9" s="12" t="e">
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="e">
         <f>B8</f>
         <v>#NAME?</v>
@@ -1263,14 +1227,23 @@
       <c r="M10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="18" t="e">
-        <f>M10-N10</f>
+      <c r="O10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="18" t="e">
+        <f>O10-P10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="R10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1283,26 +1256,26 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="Q9:R9">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>-0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
-      <formula>-0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="1048575" man="1"/>
+    <brk id="19" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
@@ -12,17 +12,17 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$S$11</definedName>
-    <definedName name="WBList">Лист1!$A$9:$S$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$W$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$W$10</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$S$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$W$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>ТМЦ</t>
-  </si>
-  <si>
-    <t>Закладка, кг.</t>
   </si>
   <si>
     <t>Фарш на формовку, кг.</t>
@@ -183,12 +180,74 @@
   <si>
     <t>Вихід план</t>
   </si>
+  <si>
+    <t>Закладка, кг. БЕЗ ВОДИ</t>
+  </si>
+  <si>
+    <t>ВОДА</t>
+  </si>
+  <si>
+    <t>ОСАДКА</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">∆  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кг.</t>
+    </r>
+  </si>
+  <si>
+    <t>ФАРШ план</t>
+  </si>
+  <si>
+    <t>вся вага з водою</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +578,9 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,6 +610,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,10 +747,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,7 +781,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -887,48 +956,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:S10"/>
+  <dimension ref="B1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="22" width="8.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+    <row r="1" spans="2:23" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="B1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="2:19" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" s="3" customFormat="1" ht="10.5" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -938,17 +1010,19 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -960,17 +1034,19 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="10" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -982,134 +1058,157 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="e">
         <f>XLRPARAMS_MatID</f>
         <v>#NAME?</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="2:19" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:23" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="O6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="Q6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="U6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+    <row r="7" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="15">
         <v>2</v>
       </c>
       <c r="E7" s="15">
         <v>3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
         <v>4</v>
       </c>
-      <c r="G7" s="15">
+      <c r="I7" s="15">
         <v>5</v>
       </c>
-      <c r="H7" s="15">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
         <v>6</v>
       </c>
-      <c r="I7" s="15">
+      <c r="M7" s="15">
         <v>7</v>
       </c>
-      <c r="J7" s="15">
+      <c r="N7" s="15">
         <v>8</v>
       </c>
-      <c r="K7" s="15">
+      <c r="O7" s="15">
         <v>9</v>
       </c>
-      <c r="L7" s="15">
+      <c r="P7" s="15">
         <v>10</v>
       </c>
-      <c r="M7" s="15">
+      <c r="Q7" s="15">
         <v>11</v>
       </c>
-      <c r="N7" s="15">
+      <c r="R7" s="15">
         <v>12</v>
       </c>
-      <c r="O7" s="15">
+      <c r="S7" s="15">
         <v>13</v>
       </c>
-      <c r="P7" s="15">
+      <c r="T7" s="15">
         <v>14</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="U7" s="15">
         <v>15</v>
       </c>
-      <c r="R7" s="15">
+      <c r="V7" s="15">
         <v>16</v>
       </c>
-      <c r="S7" s="15">
+      <c r="W7" s="15">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:19" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="e">
+    <row r="8" spans="2:23" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1">
+      <c r="B8" s="25" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1117,33 +1216,37 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="2:19" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+    <row r="9" spans="2:23" ht="16.5" customHeight="1" outlineLevel="1">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="11" t="e">
         <f>WBList_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="12" t="e">
+      <c r="E9" s="32" t="e">
+        <f>F9-G9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="12" t="e">
         <f>WBList_AmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="12" t="e">
+      <c r="G9" s="12" t="e">
+        <f>WBList_AmountWater</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="12" t="e">
         <f>WBList_FormationAmount</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G9" s="12" t="e">
-        <f>F9-E9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="12" t="e">
-        <f>WBList_CookingAmount</f>
         <v>#NAME?</v>
       </c>
       <c r="I9" s="12" t="e">
@@ -1151,112 +1254,133 @@
         <v>#NAME?</v>
       </c>
       <c r="J9" s="12" t="e">
-        <f>WBList_AmountOut</f>
+        <f>WBList_OsadkaAmount</f>
         <v>#NAME?</v>
       </c>
       <c r="K9" s="12" t="e">
         <f>J9-H9</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="13" t="e">
-        <f>IF(H9 &gt; 0, K9/H9,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M9" s="13" t="e">
+      <c r="L9" s="12" t="e">
+        <f>WBList_CookingAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M9" s="12" t="e">
+        <f>L9-H9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="12" t="e">
+        <f>WBList_AmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O9" s="12" t="e">
+        <f>N9-L9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P9" s="13" t="e">
+        <f>IF(L9 &gt; 0, O9/L9,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q9" s="13" t="e">
         <f>WBList_ThermoLossOut/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="N9" s="13" t="e">
-        <f>ABS(L9)-M9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O9" s="13" t="e">
-        <f>J9/E9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P9" s="19" t="e">
+      <c r="R9" s="13" t="e">
+        <f>ABS(P9)-Q9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S9" s="13" t="e">
+        <f>N9/F9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T9" s="19" t="e">
         <f>WBList_OutPlan/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q9" s="13" t="e">
-        <f>ABS(O9)-P9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R9" s="13" t="e">
+      <c r="U9" s="13" t="e">
+        <f>ABS(S9)-T9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="13" t="e">
         <f>WBList_Deviation/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="S9" s="12" t="e">
+      <c r="W9" s="12" t="e">
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="e">
+    <row r="10" spans="2:23" ht="18" customHeight="1">
+      <c r="B10" s="29" t="e">
         <f>B8</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="Q10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="R10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="S10" s="18" t="e">
+        <f>N10/E10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="U10" s="18" t="e">
+        <f>S10-T10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="W10" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="18" t="e">
-        <f>O10-P10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q9:R9">
+  <conditionalFormatting sqref="U9:V9">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
@@ -1264,7 +1388,7 @@
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
+  <conditionalFormatting sqref="U10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
@@ -1275,19 +1399,19 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
+    <brk id="23" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1295,13 +1419,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACAD8FE-D623-4EFC-A4F7-9D064883FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,17 +13,50 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$W$11</definedName>
-    <definedName name="WBList">Лист1!$A$9:$W$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$Y$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$Y$10</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$W$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Y$18</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -49,53 +83,6 @@
   </si>
   <si>
     <t>Аналіз план/факт</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">∆  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ст.4 - ст.3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>кг.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -157,9 +144,6 @@
     <t>Термовтрати (кг.)</t>
   </si>
   <si>
-    <t>Варка</t>
-  </si>
-  <si>
     <t>Вихід факт</t>
   </si>
   <si>
@@ -172,22 +156,13 @@
     <t>термовтрати план</t>
   </si>
   <si>
-    <t xml:space="preserve">термовтрати </t>
-  </si>
-  <si>
     <t>Відхилення план</t>
   </si>
   <si>
     <t>Вихід план</t>
   </si>
   <si>
-    <t>Закладка, кг. БЕЗ ВОДИ</t>
-  </si>
-  <si>
-    <t>ВОДА</t>
-  </si>
-  <si>
-    <t>ОСАДКА</t>
+    <t>Закладка, кг. (без води)</t>
   </si>
   <si>
     <r>
@@ -202,7 +177,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>()</t>
+      <t>(8-6)</t>
     </r>
     <r>
       <rPr>
@@ -237,17 +212,82 @@
     </r>
   </si>
   <si>
-    <t>ФАРШ план</t>
-  </si>
-  <si>
-    <t>вся вага з водою</t>
+    <t>Осадка, кг.</t>
+  </si>
+  <si>
+    <t>Варка, кг.</t>
+  </si>
+  <si>
+    <t>вода, л.</t>
+  </si>
+  <si>
+    <t>Фарш план, кг.</t>
+  </si>
+  <si>
+    <t>термовтрати факт</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">∆  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ст.10 - ст.8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кг.</t>
+    </r>
+  </si>
+  <si>
+    <t>Інтенсивка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ на інтенсивці </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,12 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,17 +603,20 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,10 +633,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -610,9 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,9 +778,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,6 +830,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -956,15 +1023,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:W10"/>
+  <dimension ref="B1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -973,34 +1038,36 @@
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" customWidth="1"/>
-    <col min="20" max="22" width="8.140625" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="13" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="24" width="8.140625" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:25" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="2:23" s="3" customFormat="1" ht="10.5" customHeight="1">
+    <row r="2" spans="2:25" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1014,8 +1081,10 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:23" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="2:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1038,8 +1107,10 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="2:23" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="2:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1133,10 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="2:23" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="2:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1071,25 +1144,22 @@
         <f>XLRPARAMS_MatID</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="6" spans="2:23" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="2:25" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -1098,50 +1168,56 @@
       <c r="I6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="J6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="S6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="14" t="s">
+      <c r="Y6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="7" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
         <v>1</v>
       </c>
@@ -1152,59 +1228,73 @@
       <c r="E7" s="15">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="15">
+        <v>5</v>
+      </c>
       <c r="H7" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="15">
-        <v>5</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="J7" s="15">
+        <v>8</v>
+      </c>
+      <c r="K7" s="15">
+        <v>9</v>
+      </c>
       <c r="L7" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M7" s="15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N7" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O7" s="15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P7" s="15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R7" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S7" s="15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T7" s="15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U7" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V7" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W7" s="15">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="X7" s="15">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:23" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1">
-      <c r="B8" s="25" t="e">
+    <row r="8" spans="2:25" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
@@ -1220,20 +1310,25 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="2:23" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="B9" s="27"/>
+    <row r="9" spans="2:25" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="e">
+        <f>B8</f>
+        <v>#NAME?</v>
+      </c>
       <c r="C9" s="28"/>
       <c r="D9" s="11" t="e">
         <f>WBList_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="32" t="e">
+      <c r="E9" s="20" t="e">
         <f>F9-G9</f>
         <v>#NAME?</v>
       </c>
@@ -1266,121 +1361,145 @@
         <v>#NAME?</v>
       </c>
       <c r="M9" s="12" t="e">
-        <f>L9-H9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N9" s="12" t="e">
-        <f>WBList_AmountOut</f>
+        <f>L9-J9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="12" t="e" cm="1">
+        <f t="array" ref="N9">WBList_IntensiveAmount</f>
         <v>#NAME?</v>
       </c>
       <c r="O9" s="12" t="e">
         <f>N9-L9</f>
         <v>#NAME?</v>
       </c>
-      <c r="P9" s="13" t="e">
-        <f>IF(L9 &gt; 0, O9/L9,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q9" s="13" t="e">
+      <c r="P9" s="12" t="e">
+        <f>WBList_AmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q9" s="12" t="e">
+        <f>P9-L9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R9" s="13" t="e">
+        <f>IF(L9 &gt; 0, Q9/L9,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S9" s="13" t="e">
         <f>WBList_ThermoLossOut/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="R9" s="13" t="e">
-        <f>ABS(P9)-Q9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S9" s="13" t="e">
-        <f>N9/F9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T9" s="19" t="e">
+      <c r="T9" s="13" t="e">
+        <f>ABS(R9)-S9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U9" s="13" t="e">
+        <f>P9/E9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="18" t="e">
         <f>WBList_OutPlan/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="U9" s="13" t="e">
-        <f>ABS(S9)-T9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V9" s="13" t="e">
+      <c r="W9" s="13" t="e">
+        <f>ABS(U9)-V9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X9" s="13" t="e">
         <f>WBList_Deviation/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="W9" s="12" t="e">
+      <c r="Y9" s="12" t="e">
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="18" customHeight="1">
+    <row r="10" spans="2:25" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="e">
         <f>B8</f>
         <v>#NAME?</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="21" t="e">
+        <f>IF(L10 &gt; 0, Q10/L10,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
+      <c r="T10" s="21" t="e">
+        <f>ABS(R10)-S10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" s="22" t="e">
+        <f>P10/E10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="W10" s="22" t="e">
+        <f>U10-V10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17" t="s">
+      <c r="Y10" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="18" t="e">
-        <f>N10/E10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="18" t="e">
-        <f>S10-T10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B1:P1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="U9:V9">
+  <conditionalFormatting sqref="W9:X9">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
@@ -1388,7 +1507,7 @@
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
+  <conditionalFormatting sqref="W10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
@@ -1399,19 +1518,19 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="23" max="1048575" man="1"/>
+    <brk id="25" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1419,13 +1538,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACAD8FE-D623-4EFC-A4F7-9D064883FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF56C17-FF53-4648-8B9F-8C5199AA4383}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,35 +13,24 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MatList">Лист1!$A$8:$Y$11</definedName>
-    <definedName name="WBList">Лист1!$A$9:$Y$10</definedName>
+    <definedName name="MatList">Лист1!$A$8:$Z$11</definedName>
+    <definedName name="WBList">Лист1!$A$9:$Z$10</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Y$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Z$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -64,9 +53,6 @@
     <t>Дата виготовлення</t>
   </si>
   <si>
-    <t>Собівартість</t>
-  </si>
-  <si>
     <t>ТМЦ</t>
   </si>
   <si>
@@ -85,17 +71,66 @@
     <t>Аналіз план/факт</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">∆  </t>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Разом</t>
+  </si>
+  <si>
+    <t>Термовтрати (кг.)</t>
+  </si>
+  <si>
+    <t>Вихід факт</t>
+  </si>
+  <si>
+    <t>термовтрати відхилення 10-11</t>
+  </si>
+  <si>
+    <t>Відхилення  (13-14)</t>
+  </si>
+  <si>
+    <t>термовтрати план</t>
+  </si>
+  <si>
+    <t>Відхилення план</t>
+  </si>
+  <si>
+    <t>Вихід план</t>
+  </si>
+  <si>
+    <t>Закладка, кг. (без води)</t>
+  </si>
+  <si>
+    <t>Осадка, кг.</t>
+  </si>
+  <si>
+    <t>Варка, кг.</t>
+  </si>
+  <si>
+    <t>вода, л.</t>
+  </si>
+  <si>
+    <t>Фарш план, кг.</t>
+  </si>
+  <si>
+    <t>термовтрати факт</t>
+  </si>
+  <si>
+    <t>Інтенсивка</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">∆ на фарші  </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(ст.6 - ст.4)</t>
     </r>
@@ -103,9 +138,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
@@ -114,9 +147,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -124,58 +155,21 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>кг.</t>
     </r>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>Разом</t>
-  </si>
-  <si>
-    <t>Термовтрати (кг.)</t>
-  </si>
-  <si>
-    <t>Вихід факт</t>
-  </si>
-  <si>
-    <t>термовтрати відхилення 10-11</t>
-  </si>
-  <si>
-    <t>Відхилення  (13-14)</t>
-  </si>
-  <si>
-    <t>термовтрати план</t>
-  </si>
-  <si>
-    <t>Відхилення план</t>
-  </si>
-  <si>
-    <t>Вихід план</t>
-  </si>
-  <si>
-    <t>Закладка, кг. (без води)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">∆  </t>
+    <r>
+      <t xml:space="preserve">∆  на осадці </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(8-6)</t>
     </r>
@@ -183,9 +177,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
@@ -194,9 +186,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -204,40 +194,21 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>кг.</t>
     </r>
   </si>
   <si>
-    <t>Осадка, кг.</t>
-  </si>
-  <si>
-    <t>Варка, кг.</t>
-  </si>
-  <si>
-    <t>вода, л.</t>
-  </si>
-  <si>
-    <t>Фарш план, кг.</t>
-  </si>
-  <si>
-    <t>термовтрати факт</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">∆  </t>
+    <r>
+      <t>∆  на термічці</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(ст.10 - ст.8)</t>
     </r>
@@ -245,9 +216,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
@@ -256,9 +225,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -266,18 +233,55 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>кг.</t>
     </r>
   </si>
   <si>
-    <t>Інтенсивка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆ на інтенсивці </t>
+    <r>
+      <t>∆  на інтенсивці і</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(ст.12 - ст.10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кг.</t>
+    </r>
+  </si>
+  <si>
+    <t>Втрати на інтенсивці, кг</t>
+  </si>
+  <si>
+    <t>сировинна собівартість</t>
   </si>
 </sst>
 </file>
@@ -287,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,21 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +400,24 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -560,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,7 +604,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +625,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,10 +637,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1025,9 +1035,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:Y10"/>
+  <dimension ref="B1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1038,36 +1050,37 @@
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="24" width="8.140625" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" customWidth="1"/>
+    <col min="13" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="25" width="8.140625" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+    <row r="1" spans="2:26" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="2:25" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1083,10 +1096,11 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="2:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
@@ -1109,10 +1123,11 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="2:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="e">
         <f>XLRPARAMS_GRP</f>
@@ -1135,93 +1150,97 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="2:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="e">
         <f>XLRPARAMS_MatID</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25"/>
+    <row r="6" spans="2:26" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="M6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="O6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="T6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="14" t="s">
+      <c r="V6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="14" t="s">
+      <c r="X6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="14" t="s">
+      <c r="Y6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>2</v>
+      <c r="Z6" s="23" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30">
+    <row r="7" spans="2:26" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31">
         <v>1</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="15">
         <v>2</v>
       </c>
@@ -1288,13 +1307,16 @@
       <c r="Y7" s="15">
         <v>23</v>
       </c>
+      <c r="Z7" s="15">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="2:25" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="e">
+    <row r="8" spans="2:26" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
@@ -1312,18 +1334,19 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:25" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="e">
+    <row r="9" spans="2:26" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="e">
         <f>B8</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="11" t="e">
         <f>WBList_OnDate</f>
         <v>#NAME?</v>
@@ -1373,133 +1396,141 @@
         <v>#NAME?</v>
       </c>
       <c r="P9" s="12" t="e">
+        <f>Q9-N9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q9" s="12" t="e">
         <f>WBList_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q9" s="12" t="e">
-        <f>P9-L9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R9" s="13" t="e">
-        <f>IF(L9 &gt; 0, Q9/L9,0)</f>
+      <c r="R9" s="12" t="e">
+        <f>Q9-L9</f>
         <v>#NAME?</v>
       </c>
       <c r="S9" s="13" t="e">
+        <f>IF(L9 &gt; 0, R9/L9,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T9" s="13" t="e">
         <f>WBList_ThermoLossOut/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="T9" s="13" t="e">
-        <f>ABS(R9)-S9</f>
-        <v>#NAME?</v>
-      </c>
       <c r="U9" s="13" t="e">
-        <f>P9/E9</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V9" s="18" t="e">
+        <f>ABS(S9)-T9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="13" t="e">
+        <f>Q9/E9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W9" s="18" t="e">
         <f>WBList_OutPlan/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="W9" s="13" t="e">
-        <f>ABS(U9)-V9</f>
-        <v>#NAME?</v>
-      </c>
       <c r="X9" s="13" t="e">
+        <f>ABS(V9)-W9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y9" s="13" t="e">
         <f>WBList_Deviation/100</f>
         <v>#NAME?</v>
       </c>
-      <c r="Y9" s="12" t="e">
+      <c r="Z9" s="12" t="e">
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="e">
+    <row r="10" spans="2:26" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="e">
         <f>B8</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="P10" s="17" t="e">
+        <f>Q10-N10</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="21" t="e">
-        <f>IF(L10 &gt; 0, Q10/L10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="21" t="e">
+        <f>IF(L10 &gt; 0, R10/L10,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="21" t="e">
-        <f>ABS(R10)-S10</f>
+      <c r="T10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="21" t="e">
+        <f>ABS(S10)-T10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U10" s="22" t="e">
-        <f>P10/E10</f>
+      <c r="V10" s="22" t="e">
+        <f>Q10/E10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10" s="22" t="e">
-        <f>U10-V10</f>
+      <c r="W10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="22" t="e">
+        <f>V10-W10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>11</v>
+      <c r="Y10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="W9:X9">
+  <conditionalFormatting sqref="X9:Y9">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
@@ -1507,7 +1538,7 @@
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
+  <conditionalFormatting sqref="X10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
@@ -1518,7 +1549,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="1048575" man="1"/>
+    <brk id="26" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>

--- a/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fact.xlsx
@@ -1,16 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF56C17-FF53-4648-8B9F-8C5199AA4383}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="MatList">Лист1!$A$8:$Z$11</definedName>
@@ -287,11 +284,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,27 +785,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,24 +819,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1033,15 +994,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -1060,7 +1019,7 @@
     <col min="26" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1039,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="2:26" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" s="3" customFormat="1" ht="10.5" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1098,7 +1057,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1084,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1111,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1120,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:26" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:26" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B7" s="31">
         <v>1</v>
       </c>
@@ -1311,7 +1270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:26" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1">
       <c r="B8" s="27" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
@@ -1341,7 +1300,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:26" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B9" s="29" t="e">
         <f>B8</f>
         <v>#NAME?</v>
@@ -1440,7 +1399,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" ht="18" customHeight="1" collapsed="1">
       <c r="B10" s="30" t="e">
         <f>B8</f>
         <v>#NAME?</v>
@@ -1552,32 +1511,4 @@
     <brk id="26" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>